--- a/AlarmsAndNotifications/TAPI_Notification_and_Streaming_Sequences.xlsx
+++ b/AlarmsAndNotifications/TAPI_Notification_and_Streaming_Sequences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Odin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nokia-my.sharepoint.com/personal/andrea_mazzini_nokia_com/Documents/MEF-SDN/from - to ONF/TELEFONICA/TAPI_RIA_3.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43C2D94-68BC-4426-B519-987E3387AD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{B43C2D94-68BC-4426-B519-987E3387AD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43EDD2C0-2012-4FDC-B380-15C263BDBFA1}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" activeTab="3" xr2:uid="{565D0DE4-AD4C-4E54-B4D8-DBAB2711D733}"/>
+    <workbookView xWindow="30375" yWindow="585" windowWidth="26925" windowHeight="13110" tabRatio="798" activeTab="2" xr2:uid="{565D0DE4-AD4C-4E54-B4D8-DBAB2711D733}"/>
   </bookViews>
   <sheets>
     <sheet name="physical-context SCENARIOS" sheetId="8" r:id="rId1"/>
@@ -20,6 +20,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'physical-context SCENARIOS'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'connectivity-context SCENARIOS'!$A$1:$P$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'physical-context SCENARIOS'!$A$1:$P$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'topology-context SCENARIOS'!$A$1:$P$20</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'connectivity-context SCENARIOS'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'physical-context SCENARIOS'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'topology-context SCENARIOS'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -808,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -833,15 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -870,27 +867,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -919,47 +904,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,7 +939,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1291,1830 +1240,1886 @@
   </sheetPr>
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B11" sqref="B11:B19"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:P49"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.734375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="19.578125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="29.41796875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="23.41796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.41796875" style="22" customWidth="1"/>
-    <col min="6" max="7" width="14.26171875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="26.15625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="7.83984375" style="23" customWidth="1"/>
-    <col min="10" max="10" width="28.47265625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="28.578125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="13.41796875" style="22" customWidth="1"/>
-    <col min="13" max="13" width="14" style="22" customWidth="1"/>
-    <col min="14" max="15" width="15.578125" style="22" customWidth="1"/>
-    <col min="16" max="16" width="39.41796875" style="22" customWidth="1"/>
-    <col min="17" max="16384" width="11.41796875" style="22"/>
+    <col min="1" max="1" width="7.7265625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" style="18" customWidth="1"/>
+    <col min="6" max="7" width="14.26953125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="28.453125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="28.54296875" style="18" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="14" style="18" customWidth="1"/>
+    <col min="14" max="15" width="15.54296875" style="18" customWidth="1"/>
+    <col min="16" max="16" width="39.453125" style="18" customWidth="1"/>
+    <col min="17" max="16384" width="11.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="16" customFormat="1" ht="50.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" s="13" customFormat="1" ht="50.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="19" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="29">
+    <row r="2" spans="1:16" s="16" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="J2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P2" s="9"/>
-    </row>
-    <row r="3" spans="1:16" s="19" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="12">
+      <c r="O2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" s="16" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="9">
         <v>2</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="10" t="s">
+      <c r="J3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" s="9"/>
-    </row>
-    <row r="4" spans="1:16" s="19" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="12">
+      <c r="O3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" s="16" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="9">
         <v>3</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="10" t="s">
+      <c r="J4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" s="19" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="12">
+      <c r="O4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" s="16" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="9">
         <v>4</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="10" t="s">
+      <c r="J5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" s="19" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="12">
+      <c r="O5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" s="16" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="9">
         <v>5</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="11" t="s">
+      <c r="J6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="9" t="s">
         <v>83</v>
       </c>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" s="19" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="12">
+    <row r="7" spans="1:16" s="16" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="9">
         <v>6</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="11" t="s">
+      <c r="J7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="9" t="s">
         <v>84</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="19" customFormat="1" ht="51.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="12">
+    <row r="8" spans="1:16" s="16" customFormat="1" ht="51.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="9">
         <v>7</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="9" t="s">
         <v>84</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="19" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="12">
+    <row r="9" spans="1:16" s="16" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="9">
         <v>8</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="10" t="s">
+      <c r="J9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" s="19" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="12">
+      <c r="O9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" s="16" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="9">
         <v>9</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="10" t="s">
+      <c r="J10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" s="19" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="12">
+      <c r="O10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" s="16" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="9">
         <v>10</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="10" t="s">
+      <c r="J11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" s="19" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="12">
+      <c r="O11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" s="16" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="9">
         <v>11</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="10" t="s">
+      <c r="J12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P12" s="9" t="s">
+      <c r="O12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="19" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="25">
+    <row r="13" spans="1:16" s="16" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="9">
         <v>12</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="10" t="s">
+      <c r="J13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="O13" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P13" s="9" t="s">
+      <c r="O13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="19" customFormat="1" ht="36.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="12">
+    <row r="14" spans="1:16" s="16" customFormat="1" ht="36.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="9">
         <v>13</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="11" t="s">
+      <c r="J14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="9" t="s">
         <v>83</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="19" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="29">
+    <row r="15" spans="1:16" s="16" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22">
         <v>2</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="29" t="s">
+      <c r="D15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="9">
         <v>1</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" s="10" t="s">
+      <c r="J15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" s="19" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="12">
+      <c r="O15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" s="16" customFormat="1" ht="49.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="9">
         <v>2</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="10" t="s">
+      <c r="J16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P16" s="9" t="s">
+      <c r="O16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="19" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="12">
+    <row r="17" spans="1:16" s="16" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="9">
         <v>3</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="10" t="s">
+      <c r="J17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P17" s="9" t="s">
+      <c r="O17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="19" customFormat="1" ht="59.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="29">
+    <row r="18" spans="1:16" s="16" customFormat="1" ht="59.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="22">
         <v>3</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="29" t="s">
+      <c r="D18" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="9">
         <v>1</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" s="10" t="s">
+      <c r="J18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P18" s="9" t="s">
+      <c r="O18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="19" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="12">
+    <row r="19" spans="1:16" s="16" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="9">
         <v>2</v>
       </c>
-      <c r="J19" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="10" t="s">
+      <c r="J19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O19" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P19" s="9" t="s">
+      <c r="O19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="19" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="12">
+    <row r="20" spans="1:16" s="16" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
         <v>4</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="11" t="s">
+      <c r="D20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="9">
         <v>1</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="10" t="s">
+      <c r="K20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="N20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O20" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P20" s="9" t="s">
+      <c r="O20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="19" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="29">
+    <row r="21" spans="1:16" s="16" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22">
         <v>5</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="29" t="s">
+      <c r="D21" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="9">
         <v>1</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L21" s="10" t="s">
+      <c r="K21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P21" s="9" t="s">
+      <c r="O21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="19" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="12">
+    <row r="22" spans="1:16" s="16" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="9">
         <v>2</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="10" t="s">
+      <c r="J22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="N22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O22" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P22" s="9" t="s">
+      <c r="O22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P22" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="19" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="12">
+    <row r="23" spans="1:16" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="9">
         <v>3</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L23" s="10" t="s">
+      <c r="J23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="12">
+      <c r="O23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" s="16" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="9">
         <v>4</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" s="10" t="s">
+      <c r="J24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="N24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="12">
+      <c r="O24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" s="16" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="9">
         <v>5</v>
       </c>
-      <c r="J25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L25" s="10" t="s">
+      <c r="J25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="N25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" s="19" customFormat="1" ht="56.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="29">
+      <c r="O25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" s="16" customFormat="1" ht="56.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="22">
         <v>6</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="29" t="s">
+      <c r="D26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="9">
         <v>1</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L26" s="11" t="s">
+      <c r="K26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="N26" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="O26" s="9" t="s">
         <v>83</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="19" customFormat="1" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="12">
+    <row r="27" spans="1:16" s="16" customFormat="1" ht="44.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="9">
         <v>2</v>
       </c>
-      <c r="J27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L27" s="10" t="s">
+      <c r="J27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="M27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="N27" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O27" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P27" s="9" t="s">
+      <c r="O27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P27" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="19" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="12">
+    <row r="28" spans="1:16" s="16" customFormat="1" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="9">
         <v>3</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L28" s="10" t="s">
+      <c r="J28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="M28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="10" t="s">
+      <c r="N28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O28" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" s="19" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="12">
+      <c r="O28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="1:16" s="16" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="9">
         <v>4</v>
       </c>
-      <c r="J29" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L29" s="10" t="s">
+      <c r="J29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M29" s="10" t="s">
+      <c r="M29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="N29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O29" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" s="19" customFormat="1" ht="107.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="12">
+      <c r="O29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" s="16" customFormat="1" ht="107.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="9">
         <v>5</v>
       </c>
-      <c r="J30" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L30" s="10" t="s">
+      <c r="J30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M30" s="10" t="s">
+      <c r="M30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N30" s="10" t="s">
+      <c r="N30" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O30" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P30" s="9" t="s">
+      <c r="O30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="19" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="29">
+    <row r="31" spans="1:16" s="16" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="22">
         <v>7</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="29" t="s">
+      <c r="D31" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="H31" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="9">
         <v>1</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L31" s="10" t="s">
+      <c r="K31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M31" s="10" t="s">
+      <c r="M31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N31" s="10" t="s">
+      <c r="N31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O31" s="10" t="s">
+      <c r="O31" s="9" t="s">
         <v>83</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="19" customFormat="1" ht="39.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="12">
+    <row r="32" spans="1:16" s="16" customFormat="1" ht="39.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="9">
         <v>2</v>
       </c>
-      <c r="J32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L32" s="10" t="s">
+      <c r="J32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N32" s="10" t="s">
+      <c r="N32" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P32" s="9" t="s">
+      <c r="O32" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P32" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="19" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="12">
+    <row r="33" spans="1:16" s="16" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="9">
         <v>3</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L33" s="10" t="s">
+      <c r="J33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="M33" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N33" s="10" t="s">
+      <c r="N33" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O33" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16" s="19" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="12">
+      <c r="O33" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="1:16" s="16" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="9">
         <v>4</v>
       </c>
-      <c r="J34" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L34" s="10" t="s">
+      <c r="J34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="M34" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N34" s="10" t="s">
+      <c r="N34" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O34" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16" s="19" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="12">
+      <c r="O34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="1:16" s="16" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="9">
         <v>5</v>
       </c>
-      <c r="J35" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L35" s="10" t="s">
+      <c r="J35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M35" s="10" t="s">
+      <c r="M35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N35" s="10" t="s">
+      <c r="N35" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O35" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P35" s="9" t="s">
+      <c r="O35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P35" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="19" customFormat="1" ht="63.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="29">
+    <row r="36" spans="1:16" s="16" customFormat="1" ht="63.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="22">
         <v>8</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="29" t="s">
+      <c r="D36" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="9">
         <v>1</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L36" s="10" t="s">
+      <c r="K36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L36" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="M36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N36" s="10" t="s">
+      <c r="N36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O36" s="10" t="s">
+      <c r="O36" s="9" t="s">
         <v>83</v>
       </c>
       <c r="P36" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="19" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="12">
+    <row r="37" spans="1:16" s="16" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="9">
         <v>2</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L37" s="10" t="s">
+      <c r="J37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M37" s="10" t="s">
+      <c r="M37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="10" t="s">
+      <c r="N37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O37" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16" s="19" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="12">
+      <c r="O37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="1:16" s="16" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="9">
         <v>3</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L38" s="10" t="s">
+      <c r="J38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L38" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M38" s="10" t="s">
+      <c r="M38" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N38" s="10" t="s">
+      <c r="N38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O38" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" s="19" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="12">
+      <c r="O38" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:16" s="16" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="9">
         <v>4</v>
       </c>
-      <c r="J39" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L39" s="10" t="s">
+      <c r="J39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M39" s="10" t="s">
+      <c r="M39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N39" s="10" t="s">
+      <c r="N39" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O39" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P39" s="9"/>
-    </row>
-    <row r="40" spans="1:16" ht="50.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="38">
+      <c r="O39" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:16" ht="50.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="22">
         <v>9</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="E40" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="F40" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="38" t="s">
+      <c r="G40" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H40" s="41" t="s">
+      <c r="H40" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I40" s="9">
         <v>1</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K40" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L40" s="26" t="s">
+      <c r="K40" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L40" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M40" s="26" t="s">
+      <c r="M40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N40" s="26" t="s">
+      <c r="N40" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O40" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P40" s="9" t="s">
+      <c r="O40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P40" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="51.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="26">
+    <row r="41" spans="1:16" ht="51.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="9">
         <v>2</v>
       </c>
-      <c r="J41" s="26" t="s">
+      <c r="J41" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K41" s="26" t="s">
+      <c r="K41" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L41" s="26" t="s">
+      <c r="L41" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M41" s="26" t="s">
+      <c r="M41" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N41" s="26" t="s">
+      <c r="N41" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O41" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P41" s="9" t="s">
+      <c r="O41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P41" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="26">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="9">
         <v>3</v>
       </c>
-      <c r="J42" s="26" t="s">
+      <c r="J42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K42" s="26" t="s">
+      <c r="K42" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L42" s="26" t="s">
+      <c r="L42" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M42" s="26" t="s">
+      <c r="M42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N42" s="26" t="s">
+      <c r="N42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O42" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P42" s="9"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="26">
+      <c r="O42" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="9">
         <v>4</v>
       </c>
-      <c r="J43" s="26" t="s">
+      <c r="J43" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K43" s="26" t="s">
+      <c r="K43" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L43" s="26" t="s">
+      <c r="L43" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M43" s="26" t="s">
+      <c r="M43" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N43" s="26" t="s">
+      <c r="N43" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O43" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P43" s="9"/>
-    </row>
-    <row r="44" spans="1:16" ht="116.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="26">
+      <c r="O43" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="1:16" ht="116.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="9">
         <v>5</v>
       </c>
-      <c r="J44" s="26" t="s">
+      <c r="J44" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K44" s="26" t="s">
+      <c r="K44" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L44" s="26" t="s">
+      <c r="L44" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M44" s="26" t="s">
+      <c r="M44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N44" s="26" t="s">
+      <c r="N44" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O44" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P44" s="9" t="s">
+      <c r="O44" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P44" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="55.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="38">
+    <row r="45" spans="1:16" ht="55.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="22">
         <v>10</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E45" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="F45" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="I45" s="26">
+      <c r="I45" s="9">
         <v>1</v>
       </c>
-      <c r="J45" s="26" t="s">
+      <c r="J45" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K45" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L45" s="26" t="s">
+      <c r="K45" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L45" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M45" s="26" t="s">
+      <c r="M45" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="26" t="s">
+      <c r="N45" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O45" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P45" s="9" t="s">
+      <c r="O45" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P45" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="55.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="26">
+    <row r="46" spans="1:16" ht="55.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="9">
         <v>2</v>
       </c>
-      <c r="J46" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K46" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L46" s="26" t="s">
+      <c r="J46" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L46" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M46" s="26" t="s">
+      <c r="M46" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N46" s="26" t="s">
+      <c r="N46" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O46" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P46" s="9" t="s">
+      <c r="O46" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P46" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="26">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="9">
         <v>3</v>
       </c>
-      <c r="J47" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K47" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L47" s="26" t="s">
+      <c r="J47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L47" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M47" s="26" t="s">
+      <c r="M47" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N47" s="26" t="s">
+      <c r="N47" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O47" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P47" s="9"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="26">
+      <c r="O47" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P47" s="6"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="9">
         <v>4</v>
       </c>
-      <c r="J48" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K48" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L48" s="26" t="s">
+      <c r="J48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M48" s="26" t="s">
+      <c r="M48" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N48" s="26" t="s">
+      <c r="N48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O48" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P48" s="9"/>
-    </row>
-    <row r="49" spans="1:16" ht="117.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="26">
+      <c r="O48" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P48" s="6"/>
+    </row>
+    <row r="49" spans="1:16" ht="117.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="9">
         <v>5</v>
       </c>
-      <c r="J49" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K49" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L49" s="26" t="s">
+      <c r="J49" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L49" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M49" s="26" t="s">
+      <c r="M49" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N49" s="26" t="s">
+      <c r="N49" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O49" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P49" s="9" t="s">
+      <c r="O49" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P49" s="6" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P39" xr:uid="{654F0343-D30B-4E27-AF27-E4AF127944C3}"/>
   <mergeCells count="72">
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="E2:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H2:H14"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="C2:C14"/>
+    <mergeCell ref="D2:D14"/>
+    <mergeCell ref="F2:F14"/>
+    <mergeCell ref="G2:G14"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="G40:G44"/>
@@ -3131,65 +3136,10 @@
     <mergeCell ref="D40:D44"/>
     <mergeCell ref="E40:E44"/>
     <mergeCell ref="F40:F44"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="H2:H14"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="C2:C14"/>
-    <mergeCell ref="D2:D14"/>
-    <mergeCell ref="F2:F14"/>
-    <mergeCell ref="G2:G14"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="E2:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A30"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="35" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3205,15 +3155,15 @@
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.41796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="68.15625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="72.41796875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="68.1796875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="72.453125" style="5" customWidth="1"/>
     <col min="4" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="50.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="50.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -3224,7 +3174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="71.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>44</v>
       </c>
@@ -3232,12 +3182,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
@@ -3245,17 +3195,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
@@ -3276,1130 +3226,1117 @@
   </sheetPr>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B18" sqref="B18:B19"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:P29"/>
+      <selection pane="bottomLeft" activeCell="AF53" sqref="AF53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.734375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="17.9453125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="21.9453125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="18.62890625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="20.47265625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="14.26171875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="15.734375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="24.83984375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="7.83984375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="29.578125" style="16" customWidth="1"/>
-    <col min="11" max="11" width="29.68359375" style="16" customWidth="1"/>
-    <col min="12" max="13" width="14" style="16" customWidth="1"/>
-    <col min="14" max="14" width="15.578125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="16.62890625" style="16" customWidth="1"/>
-    <col min="16" max="16" width="39.41796875" style="19" customWidth="1"/>
-    <col min="17" max="17" width="41.41796875" style="19" customWidth="1"/>
-    <col min="18" max="16384" width="11" style="19"/>
+    <col min="1" max="1" width="7.7265625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="24.81640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="29.54296875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="29.6328125" style="13" customWidth="1"/>
+    <col min="12" max="13" width="14" style="13" customWidth="1"/>
+    <col min="14" max="14" width="15.54296875" style="13" customWidth="1"/>
+    <col min="15" max="15" width="16.6328125" style="13" customWidth="1"/>
+    <col min="16" max="16" width="39.453125" style="16" customWidth="1"/>
+    <col min="17" max="17" width="41.453125" style="16" customWidth="1"/>
+    <col min="18" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="16" customFormat="1" ht="50.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" s="13" customFormat="1" ht="50.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="35.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="38">
+    <row r="2" spans="1:16" ht="35.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P2" s="9" t="s">
+      <c r="O2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="44.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="26">
+    <row r="3" spans="1:16" ht="44.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="9">
         <v>2</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="26" t="s">
+      <c r="K3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" s="9" t="s">
+      <c r="O3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="26">
+    <row r="4" spans="1:16" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="9">
         <v>3</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="26" t="s">
+      <c r="K4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P4" s="9" t="s">
+      <c r="O4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="26">
+    <row r="5" spans="1:16" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="9">
         <v>4</v>
       </c>
-      <c r="J5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="26" t="s">
+      <c r="J5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P5" s="9" t="s">
+      <c r="O5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="94.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="26">
+    <row r="6" spans="1:16" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="9">
         <v>5</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="26" t="s">
+      <c r="K6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P6" s="9" t="s">
+      <c r="O6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="105.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="21">
+    <row r="7" spans="1:16" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="9">
         <v>6</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="10" t="s">
+      <c r="J7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" s="9" t="s">
+      <c r="O7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="63.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="26">
+    <row r="8" spans="1:16" ht="63.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="9">
         <v>7</v>
       </c>
-      <c r="J8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" s="26" t="s">
+      <c r="J8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="O8" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="9" t="s">
+      <c r="O8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="38.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="26">
+    <row r="9" spans="1:16" ht="38.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="9">
         <v>8</v>
       </c>
-      <c r="J9" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="26" t="s">
+      <c r="J9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P9" s="9" t="s">
+      <c r="O9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="44.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="21">
+    <row r="10" spans="1:16" ht="44.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="9">
         <v>9</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="10" t="s">
+      <c r="K10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P10" s="9" t="s">
+      <c r="O10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="32.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="38">
+    <row r="11" spans="1:16" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22">
         <v>2</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="9">
         <v>1</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="26" t="s">
+      <c r="K11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="26" t="s">
+      <c r="N11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O11" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P11" s="9" t="s">
+      <c r="O11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="53.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="26">
+    <row r="12" spans="1:16" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="9">
         <v>2</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="26" t="s">
+      <c r="K12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="26" t="s">
+      <c r="N12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P12" s="9" t="s">
+      <c r="O12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="26">
+    <row r="13" spans="1:16" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="9">
         <v>3</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="26" t="s">
+      <c r="K13" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="26" t="s">
+      <c r="N13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P13" s="9" t="s">
+      <c r="O13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="67.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="26">
+    <row r="14" spans="1:16" ht="67.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="9">
         <v>4</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="26" t="s">
+      <c r="K14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="26" t="s">
+      <c r="N14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P14" s="9" t="s">
+      <c r="O14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="26">
+    <row r="15" spans="1:16" ht="23.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="9">
         <v>5</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="L15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="N15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="26">
+      <c r="O15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="9">
         <v>6</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="28" t="s">
+      <c r="K16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="N16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P16" s="9" t="s">
+      <c r="O16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="44.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="26">
+    <row r="17" spans="1:16" ht="44.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="9">
         <v>7</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N17" s="26" t="s">
+      <c r="N17" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="O17" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="26">
+      <c r="O17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="9">
         <v>8</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="J18" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="28" t="s">
+      <c r="K18" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L18" s="26" t="s">
+      <c r="L18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O18" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P18" s="9" t="s">
+      <c r="O18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="37.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="27">
+    <row r="19" spans="1:16" ht="37.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="15">
         <v>9</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="27" t="s">
+      <c r="K19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="27" t="s">
+      <c r="M19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="27" t="s">
+      <c r="N19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="P19" s="51" t="s">
+      <c r="O19" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="36.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="38">
+    <row r="20" spans="1:16" ht="36.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="22">
         <v>3</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="38" t="s">
+      <c r="E20" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="9">
         <v>1</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="26" t="s">
+      <c r="K20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="26" t="s">
+      <c r="M20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="26" t="s">
+      <c r="N20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O20" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P20" s="9" t="s">
+      <c r="O20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="36.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="26">
+    <row r="21" spans="1:16" ht="36.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="9">
         <v>2</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L21" s="26" t="s">
+      <c r="K21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="M21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="N21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O21" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P21" s="9" t="s">
+      <c r="O21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="36.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="26">
+    <row r="22" spans="1:16" ht="36.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="9">
         <v>3</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="26" t="s">
+      <c r="K22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="M22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N22" s="26" t="s">
+      <c r="N22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O22" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P22" s="9" t="s">
+      <c r="O22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P22" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="103.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="26">
+    <row r="23" spans="1:16" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="9">
         <v>4</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L23" s="26" t="s">
+      <c r="K23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="26" t="s">
+      <c r="M23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N23" s="26" t="s">
+      <c r="N23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P23" s="9" t="s">
+      <c r="O23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="103.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="26">
+    <row r="24" spans="1:16" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="9">
         <v>5</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" s="26" t="s">
+      <c r="K24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="26" t="s">
+      <c r="M24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N24" s="26" t="s">
+      <c r="N24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O24" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P24" s="9" t="s">
+      <c r="O24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="103.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="26">
+    <row r="25" spans="1:16" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="9">
         <v>6</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="26" t="s">
+      <c r="K25" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="26" t="s">
+      <c r="L25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="26" t="s">
+      <c r="M25" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N25" s="26" t="s">
+      <c r="N25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O25" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P25" s="9" t="s">
+      <c r="O25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P25" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="102.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="26">
+    <row r="26" spans="1:16" ht="102.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="9">
         <v>7</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L26" s="26" t="s">
+      <c r="K26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M26" s="26" t="s">
+      <c r="M26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N26" s="26" t="s">
+      <c r="N26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O26" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P26" s="9" t="s">
+      <c r="O26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="182.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="12">
+    <row r="27" spans="1:16" ht="182.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
         <v>4</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="11" t="s">
+      <c r="E27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="9">
         <v>1</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11" t="s">
+      <c r="K27" s="9"/>
+      <c r="L27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="N27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O27" s="11"/>
-      <c r="P27" s="20" t="s">
+      <c r="O27" s="9"/>
+      <c r="P27" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="180.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="12">
+    <row r="28" spans="1:16" ht="180.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
         <v>5</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="11" t="s">
+      <c r="E28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="9">
         <v>1</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11" t="s">
+      <c r="K28" s="9"/>
+      <c r="L28" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N28" s="11" t="s">
+      <c r="N28" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O28" s="11"/>
-      <c r="P28" s="20" t="s">
+      <c r="O28" s="9"/>
+      <c r="P28" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="143.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="12">
+    <row r="29" spans="1:16" ht="143.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
         <v>6</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="11" t="s">
+      <c r="E29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="9">
         <v>1</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11" t="s">
+      <c r="K29" s="9"/>
+      <c r="L29" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="M29" s="11" t="s">
+      <c r="M29" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="11" t="s">
+      <c r="N29" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O29" s="11"/>
-      <c r="P29" s="20" t="s">
+      <c r="O29" s="9"/>
+      <c r="P29" s="17" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G20:G26"/>
-    <mergeCell ref="H20:H26"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="D20:D26"/>
-    <mergeCell ref="E20:E26"/>
-    <mergeCell ref="F20:F26"/>
-    <mergeCell ref="F11:F19"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="H11:H19"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="H2:H10"/>
-    <mergeCell ref="F2:F10"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="A20:A26"/>
@@ -4411,9 +4348,22 @@
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="C11:C19"/>
     <mergeCell ref="D11:D19"/>
+    <mergeCell ref="F11:F19"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="H11:H19"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="H2:H10"/>
+    <mergeCell ref="F2:F10"/>
+    <mergeCell ref="G20:G26"/>
+    <mergeCell ref="H20:H26"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="E20:E26"/>
+    <mergeCell ref="F20:F26"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="35" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4424,850 +4374,850 @@
   </sheetPr>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B11" sqref="B11:B19"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16:G18"/>
+      <selection pane="bottomLeft" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.734375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="21.9453125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="31.41796875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="30.83984375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="25" style="16" customWidth="1"/>
-    <col min="6" max="7" width="14.26171875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="23" style="19" customWidth="1"/>
-    <col min="9" max="9" width="7.83984375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="32.26171875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="25.41796875" style="16" customWidth="1"/>
-    <col min="12" max="12" width="14" style="16" customWidth="1"/>
-    <col min="13" max="13" width="14.41796875" style="16" customWidth="1"/>
-    <col min="14" max="15" width="15.578125" style="16" customWidth="1"/>
-    <col min="16" max="16" width="39.41796875" style="19" customWidth="1"/>
-    <col min="17" max="17" width="44.3125" style="19" customWidth="1"/>
-    <col min="18" max="16384" width="11" style="19"/>
+    <col min="1" max="1" width="7.7265625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="25" style="13" customWidth="1"/>
+    <col min="6" max="7" width="14.26953125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="23" style="16" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="32.26953125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="25.453125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="14" style="13" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" style="13" customWidth="1"/>
+    <col min="14" max="15" width="15.54296875" style="13" customWidth="1"/>
+    <col min="16" max="16" width="39.453125" style="16" customWidth="1"/>
+    <col min="17" max="17" width="44.26953125" style="16" customWidth="1"/>
+    <col min="18" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="16" customFormat="1" ht="50.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" s="13" customFormat="1" ht="50.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="175.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12">
+    <row r="2" spans="1:16" ht="175.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="197.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="12">
+    <row r="3" spans="1:16" ht="197.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="9">
         <v>1</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="9" t="s">
         <v>84</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="89.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="29">
+    <row r="4" spans="1:16" ht="89.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="29" t="s">
+      <c r="D4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9">
         <v>1</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="K4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="9" t="s">
         <v>83</v>
       </c>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="12">
+    <row r="5" spans="1:16" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="9">
         <v>2</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="11" t="s">
+      <c r="J5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="9" t="s">
         <v>83</v>
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="33.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="12">
+    <row r="6" spans="1:16" ht="33.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="9">
         <v>3</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="11" t="s">
+      <c r="K6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="9" t="s">
         <v>83</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="120.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="26">
+    <row r="7" spans="1:16" ht="120.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="9">
         <v>4</v>
       </c>
-      <c r="J7" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="26" t="s">
+      <c r="J7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" s="9" t="s">
+      <c r="O7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="75.900000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="38">
+    <row r="8" spans="1:16" ht="75.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22">
         <v>4</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="9">
         <v>1</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" s="26" t="s">
+      <c r="K8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="26">
+      <c r="O8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="9">
         <v>2</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" ht="46.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="26">
+      <c r="O9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="9">
         <v>3</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="26" t="s">
+      <c r="K10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P10" s="9" t="s">
+      <c r="O10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="128.69999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="26">
+    <row r="11" spans="1:16" ht="128.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="9">
         <v>4</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N11" s="26" t="s">
+      <c r="N11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P11" s="9" t="s">
+      <c r="O11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="96.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="12">
+    <row r="12" spans="1:16" ht="96.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
         <v>5</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="9">
         <v>1</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="11" t="s">
+      <c r="K12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="9" t="s">
         <v>83</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="57.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="46">
+    <row r="13" spans="1:16" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="31">
         <v>6</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="46" t="s">
+      <c r="D13" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="9">
         <v>1</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="11" t="s">
+      <c r="K13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="9" t="s">
         <v>84</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="47.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="12">
+    <row r="14" spans="1:16" ht="47.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="9">
         <v>2</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="11" t="s">
+      <c r="J14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="9" t="s">
         <v>83</v>
       </c>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="12">
+    <row r="15" spans="1:16" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="9">
         <v>3</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" s="11" t="s">
+      <c r="J15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="9" t="s">
         <v>83</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="29">
+    <row r="16" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="22">
         <v>7</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="9">
         <v>1</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="11" t="s">
+      <c r="K16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="9" t="s">
         <v>84</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="12">
+    <row r="17" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="9">
         <v>2</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="9" t="s">
         <v>83</v>
       </c>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:16" ht="59.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="12">
+    <row r="18" spans="1:16" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="9">
         <v>3</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="9" t="s">
         <v>83</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="100.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="12">
+    <row r="19" spans="1:16" ht="100.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
         <v>8</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="E19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="9">
         <v>1</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="11" t="s">
+      <c r="K19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="11" t="s">
+      <c r="O19" s="9" t="s">
         <v>83</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="121.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="12">
+    <row r="20" spans="1:16" ht="121.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
         <v>9</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="11" t="s">
+      <c r="E20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="9">
         <v>1</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="11" t="s">
+      <c r="K20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="9" t="s">
         <v>83</v>
       </c>
       <c r="P20" s="6" t="s">
@@ -5276,6 +5226,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="G4:G7"/>
@@ -5292,24 +5258,8 @@
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="35" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>